--- a/用例数据/深权/做市商手续费优惠/测试结果.xlsx
+++ b/用例数据/深权/做市商手续费优惠/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="211">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -571,9 +571,6 @@
     <t>0.000000000</t>
   </si>
   <si>
-    <t>1001269988.300</t>
-  </si>
-  <si>
     <t>0.000000</t>
   </si>
   <si>
@@ -616,31 +613,46 @@
     <t>合约标的代码:159002</t>
   </si>
   <si>
-    <t>30150129</t>
-  </si>
-  <si>
-    <t>20230221160924</t>
-  </si>
-  <si>
-    <t>30150127</t>
-  </si>
-  <si>
-    <t>30150125</t>
-  </si>
-  <si>
-    <t>30150130</t>
-  </si>
-  <si>
-    <t>30150126</t>
-  </si>
-  <si>
     <t>合约标的代码:159903</t>
   </si>
   <si>
-    <t>30150128</t>
-  </si>
-  <si>
     <t>合约标的代码:159904</t>
+  </si>
+  <si>
+    <t>30001097</t>
+  </si>
+  <si>
+    <t>20230224235959</t>
+  </si>
+  <si>
+    <t>20230225104347</t>
+  </si>
+  <si>
+    <t>1001579223.780</t>
+  </si>
+  <si>
+    <t>-30000.150</t>
+  </si>
+  <si>
+    <t>30001098</t>
+  </si>
+  <si>
+    <t>30001099</t>
+  </si>
+  <si>
+    <t>304.230</t>
+  </si>
+  <si>
+    <t>30001100</t>
+  </si>
+  <si>
+    <t>30001101</t>
+  </si>
+  <si>
+    <t>-4001.280</t>
+  </si>
+  <si>
+    <t>30001102</t>
   </si>
 </sst>
 </file>
@@ -1960,14 +1972,14 @@
   <dimension ref="A1:CY30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="25" max="25" width="16.875" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
-    <col min="49" max="49" width="23.375" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
+    <col min="48" max="48" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2283,19 +2295,19 @@
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>179</v>
@@ -2330,10 +2342,9 @@
       <c r="W2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2344,46 +2355,46 @@
         <v>76</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>60</v>
@@ -2404,13 +2415,13 @@
         <v>70</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>182</v>
@@ -2428,49 +2439,49 @@
         <v>71</v>
       </c>
       <c r="BH2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>76</v>
@@ -2479,10 +2490,10 @@
         <v>76</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE2" s="1" t="s">
         <v>179</v>
@@ -2500,7 +2511,7 @@
         <v>70</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>70</v>
@@ -2512,7 +2523,7 @@
         <v>76</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>70</v>
@@ -2523,19 +2534,19 @@
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>179</v>
@@ -2570,10 +2581,9 @@
       <c r="W3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2584,46 +2594,46 @@
         <v>76</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>60</v>
@@ -2644,13 +2654,13 @@
         <v>70</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>182</v>
@@ -2668,49 +2678,49 @@
         <v>71</v>
       </c>
       <c r="BH3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY3" s="1" t="s">
         <v>76</v>
@@ -2719,10 +2729,10 @@
         <v>76</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE3" s="1" t="s">
         <v>179</v>
@@ -2740,7 +2750,7 @@
         <v>70</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>70</v>
@@ -2752,7 +2762,7 @@
         <v>76</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="CX3" s="1" t="s">
         <v>70</v>
@@ -2763,19 +2773,19 @@
     </row>
     <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>179</v>
@@ -2810,10 +2820,9 @@
       <c r="W4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z4" s="1" t="s">
         <v>70</v>
       </c>
@@ -2824,46 +2833,46 @@
         <v>76</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AE4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>60</v>
@@ -2884,13 +2893,13 @@
         <v>70</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>182</v>
@@ -2908,49 +2917,49 @@
         <v>71</v>
       </c>
       <c r="BH4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY4" s="1" t="s">
         <v>76</v>
@@ -2959,10 +2968,10 @@
         <v>76</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE4" s="1" t="s">
         <v>179</v>
@@ -2980,7 +2989,7 @@
         <v>70</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT4" s="1" t="s">
         <v>70</v>
@@ -2992,7 +3001,7 @@
         <v>76</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="CX4" s="1" t="s">
         <v>70</v>
@@ -3003,19 +3012,19 @@
     </row>
     <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>179</v>
@@ -3050,10 +3059,9 @@
       <c r="W5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3064,46 +3072,46 @@
         <v>76</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AE5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>60</v>
@@ -3124,13 +3132,13 @@
         <v>70</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BB5" s="1" t="s">
         <v>182</v>
@@ -3148,49 +3156,49 @@
         <v>71</v>
       </c>
       <c r="BH5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY5" s="1" t="s">
         <v>76</v>
@@ -3199,10 +3207,10 @@
         <v>76</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE5" s="1" t="s">
         <v>179</v>
@@ -3220,7 +3228,7 @@
         <v>70</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT5" s="1" t="s">
         <v>70</v>
@@ -3232,7 +3240,7 @@
         <v>76</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="CX5" s="1" t="s">
         <v>70</v>
@@ -3243,7 +3251,7 @@
     </row>
     <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>177</v>
@@ -3252,10 +3260,10 @@
         <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>179</v>
@@ -3290,10 +3298,9 @@
       <c r="W6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z6" s="1" t="s">
         <v>70</v>
       </c>
@@ -3304,46 +3311,46 @@
         <v>76</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>60</v>
@@ -3364,13 +3371,13 @@
         <v>70</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ6" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="BB6" s="1" t="s">
         <v>182</v>
@@ -3388,49 +3395,49 @@
         <v>71</v>
       </c>
       <c r="BH6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY6" s="1" t="s">
         <v>76</v>
@@ -3439,10 +3446,10 @@
         <v>76</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE6" s="1" t="s">
         <v>179</v>
@@ -3460,7 +3467,7 @@
         <v>70</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT6" s="1" t="s">
         <v>70</v>
@@ -3472,7 +3479,7 @@
         <v>76</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="CX6" s="1" t="s">
         <v>70</v>
@@ -3483,7 +3490,7 @@
     </row>
     <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -3492,10 +3499,10 @@
         <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>179</v>
@@ -3530,10 +3537,9 @@
       <c r="W7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z7" s="1" t="s">
         <v>70</v>
       </c>
@@ -3544,46 +3550,46 @@
         <v>76</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AN7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>60</v>
@@ -3604,13 +3610,13 @@
         <v>70</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ7" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="BB7" s="1" t="s">
         <v>182</v>
@@ -3628,49 +3634,49 @@
         <v>71</v>
       </c>
       <c r="BH7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BM7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BO7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BY7" s="1" t="s">
         <v>76</v>
@@ -3679,10 +3685,10 @@
         <v>76</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE7" s="1" t="s">
         <v>179</v>
@@ -3700,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CT7" s="1" t="s">
         <v>70</v>
@@ -3712,7 +3718,7 @@
         <v>76</v>
       </c>
       <c r="CW7" s="1" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="CX7" s="1" t="s">
         <v>70</v>
